--- a/range_ednaconc_stations.xlsx
+++ b/range_ednaconc_stations.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>stasjon</t>
+          <t>station</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -382,7 +382,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pinksal</t>
+          <t>oncgor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -392,31 +392,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.3e-06</t>
+          <t>1.7e-06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pinksal</t>
+          <t>oncgor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.7e-02</t>
+          <t>2.3e-02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>atlsal</t>
+          <t>salsal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -426,53 +426,53 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.5e-07</t>
+          <t>1.3e-06</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>atlsal</t>
+          <t>salsal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.2e-05</t>
+          <t>3.1e-05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trout</t>
+          <t>saltru</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.7e-07</t>
+          <t>3.8e-06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trout</t>
+          <t>saltru</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -484,24 +484,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>arctchar</t>
+          <t>salalp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.5e-08</t>
+          <t>1.6e-07</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>arctchar</t>
+          <t>salalp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.9e-06</t>
+          <t>2.5e-06</t>
         </is>
       </c>
     </row>
